--- a/src/test/java/TestCaseXml/测试用例.xlsx
+++ b/src/test/java/TestCaseXml/测试用例.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/master/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/master/Documents/workspace/HDITAPPUIAutoTest/src/test/java/TestCaseXml/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,26 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>case1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验证恒大金服登录功能</t>
-  </si>
-  <si>
-    <t>wait-Forced</t>
-  </si>
-  <si>
-    <t>强制等待5秒</t>
-  </si>
-  <si>
     <t>click-Ele</t>
-  </si>
-  <si>
-    <t>resource-id=textView_gesture_switch_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作(action)</t>
@@ -79,69 +66,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resource-id=phone_view</t>
-  </si>
-  <si>
-    <t>点击手机号输入框</t>
-  </si>
-  <si>
-    <t>点击切换账号按钮</t>
-  </si>
-  <si>
-    <t>com.evergrande.pages.SafeKeyBoard</t>
-  </si>
-  <si>
-    <t>sendNum</t>
-  </si>
-  <si>
-    <t>pressFinishBtn</t>
-  </si>
-  <si>
-    <t>安全键盘完成</t>
-  </si>
-  <si>
     <t>send-Keys</t>
-  </si>
-  <si>
-    <t>com.evergrande.pages.SafeKeyBoard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>click-Ele</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全键盘输入</t>
-    <rPh sb="0" eb="1">
-      <t>an'q</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jian'p</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu'r</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource-id=editText_captcha</t>
-  </si>
-  <si>
-    <t>h1h1</t>
-  </si>
-  <si>
-    <t>验证码输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource-id=button_nextStep</t>
-  </si>
-  <si>
-    <t>点击登录按钮</t>
-    <rPh sb="0" eb="1">
-      <t>dian'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试id(id)</t>
@@ -218,69 +143,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>case2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send-Keys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text=你的手机号码</t>
-  </si>
-  <si>
-    <t>输入手机号码</t>
+    <t>输入密码</t>
     <rPh sb="0" eb="1">
       <t>shu'r</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>shou'ji'hao'm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXX</t>
-  </si>
-  <si>
-    <t>send-Keys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource-id=com.tencent.mm:id/g_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入密码</t>
-    <rPh sb="0" eb="1">
-      <t>shu'r</t>
-    </rPh>
-    <rPh sb="2" eb="3">
       <t>mi'ma</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text=登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击登录按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android-check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text=通讯录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -303,12 +172,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验证登录后显示界面</t>
+    <t>工程管理登录功能</t>
+    <rPh sb="0" eb="1">
+      <t>gong'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-id=username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>072730700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-id=psw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-id=commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击登录</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入用户名</t>
+    <rPh sb="0" eb="1">
+      <t>shu'r</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android-Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath=//android.widget.TextView[@text='形象进度管理']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期出现形象进度管理按钮</t>
+    <rPh sb="0" eb="1">
+      <t>yu'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu'x</t>
+    </rPh>
     <rPh sb="4" eb="5">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xian's</t>
+      <t>xing'xiang'jin'du</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>an'n</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -432,6 +368,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -711,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,44 +669,45 @@
     <col min="6" max="6" width="23.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="27" style="2" customWidth="1"/>
     <col min="8" max="8" width="41" style="2" customWidth="1"/>
-    <col min="9" max="10" width="20.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="25.83203125" style="2" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
+      <c r="I1" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -772,19 +715,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>5000</v>
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -794,13 +740,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -810,171 +759,44 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2">
-        <v>13007311222</v>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="I2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/src/test/java/TestCaseXml/测试用例.xlsx
+++ b/src/test/java/TestCaseXml/测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>case1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,18 +190,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resource-id=psw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1234567a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resource-id=commit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击登录</t>
     <rPh sb="0" eb="1">
       <t>dian'ji</t>
@@ -223,10 +215,6 @@
   </si>
   <si>
     <t>android-Check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath=//android.widget.TextView[@text='形象进度管理']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -246,6 +234,435 @@
     <rPh sb="10" eb="11">
       <t>an'n</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath=//android.widget.TextView[@text='形象进度管理']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次进入形象工程同步数据</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ci</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'r</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing'xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击进入形象进度管理</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'r</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing'xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jin'd</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击立即同步</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果(result)</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼栋列表</t>
+    <rPh sb="0" eb="1">
+      <t>lou'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lie'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath=//android.widget.RadioButton[@text='形象进度']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击形象进度页签</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing'xiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin'du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ye'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.evergrande.pages.ImageProjectListPageObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chooseProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京恒大名都0322</t>
+  </si>
+  <si>
+    <t>进入一个形象工程</t>
+    <rPh sb="0" eb="1">
+      <t>jin'r</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing'xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click-IfExistEle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-id=commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-id=btnEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击录入形象工程按钮</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lu'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing'xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-id=positiveButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath=//android.widget.TextView[@resource-id='com.evergrande.hdproject:id/tv_tab' and @text='形象进度']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击形象进度标签</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing'xiang'jin'd</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>biqo'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-id=psw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-id=custom_spinner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click-Ele</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击选择楼栋</t>
+    <rPh sb="0" eb="1">
+      <t>dian'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lou'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.evergrande.pages.ImageProgressPageObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chooseBuilding</t>
+  </si>
+  <si>
+    <t>一期;一期园建工程</t>
+    <rPh sb="0" eb="1">
+      <t>yi'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择楼栋</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lou'dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照（多张照片）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击拍照按钮</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pai'zhao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//case4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.evergrande.pages.ImageProgressPageObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chooseProcedure</t>
+  </si>
+  <si>
+    <t>主体(层)</t>
+  </si>
+  <si>
+    <t>选择工序</t>
+    <rPh sb="0" eb="1">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度描述</t>
+  </si>
+  <si>
+    <t>resource-id=btnTakePhoto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入进度</t>
+    <rPh sb="0" eb="1">
+      <t>shu'r</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是进度描述</t>
+    <rPh sb="0" eb="1">
+      <t>zhe's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'd</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>miao's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入进度描述</t>
+    <rPh sb="0" eb="1">
+      <t>shu'r</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'd</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>miao's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态变化（待完善--&gt;已维护）</t>
+  </si>
+  <si>
+    <t>case7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.evergrande.pages.ImageProgressPageObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendConstructionStages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入工序</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-id=etProDes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-id=iv_upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-id=negativeButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击上传·提交按钮</t>
+    <rPh sb="0" eb="1">
+      <t>dian'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'c</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击上传按钮</t>
+    <rPh sb="0" eb="1">
+      <t>dian'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-id=iv_upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-id=positiveButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击提交按钮</t>
+    <rPh sb="0" eb="1">
+      <t>dian'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-id=etPro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-id=etProStr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,6 +778,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -368,12 +791,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -653,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,13 +1086,13 @@
     <col min="6" max="6" width="23.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="27" style="2" customWidth="1"/>
     <col min="8" max="8" width="41" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="20.1640625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="20.1640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -700,21 +1117,24 @@
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
@@ -726,16 +1146,16 @@
       <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2">
         <v>2</v>
       </c>
@@ -743,18 +1163,18 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+    <row r="4" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="2">
         <v>3</v>
       </c>
@@ -762,35 +1182,369 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>15</v>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
